--- a/df/aeropuertos_unicos.xlsx
+++ b/df/aeropuertos_unicos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F364"/>
+  <dimension ref="A1:G364"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>direccion</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>codigo_aeropuerto</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -482,14 +487,19 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>37.967543</v>
+        <v>32.45095</v>
       </c>
       <c r="E2" t="n">
-        <v>-100.871894</v>
+        <v>-99.73567799999999</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>205 E Laurel St, Garden City, KS 67846</t>
+          <t>202 Cedar St (North 2nd), Abilene, TX 79601</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>ABR</t>
         </is>
       </c>
     </row>
@@ -520,6 +530,11 @@
           <t>182 S Main St, Akron, OH 44308</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>AKR</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -548,6 +563,11 @@
           <t>6000 N Terminal Pkwy (at Airport Loop Rd), Atlanta, GA 30320</t>
         </is>
       </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>ATL</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -576,6 +596,11 @@
           <t>1011 N Main St, Garden City, KS 67846</t>
         </is>
       </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>JMW</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -604,6 +629,11 @@
           <t>303 N Laura St (Duval St.), Jacksonville, FL 32202</t>
         </is>
       </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>JAX</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -632,6 +662,11 @@
           <t>221 W US Highway 64, Lexington, NC 27295</t>
         </is>
       </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>AJE</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -660,6 +695,11 @@
           <t>310 1st Ave S, Jamestown, ND 58401</t>
         </is>
       </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>JMR</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -688,6 +728,11 @@
           <t>479 Airport Rd, Johnstown, PA 15904</t>
         </is>
       </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>JMJ</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -716,6 +761,11 @@
           <t>506 S Joplin Ave, Joplin, MO 64801</t>
         </is>
       </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>JPL</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -744,6 +794,11 @@
           <t>489 S Franklin St, Juneau, AK 99801</t>
         </is>
       </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>JNU</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -772,6 +827,11 @@
           <t>130 W Kamehameha Ave, Kahului, HI 96732</t>
         </is>
       </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>OGG</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -800,6 +860,11 @@
           <t>230 N Rose St (btw Eleanor St. &amp; Water St.), Kalamazoo, MI 49007</t>
         </is>
       </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>AZO</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -828,6 +893,11 @@
           <t>705 2nd Ave E, Kalispell, MT 59901</t>
         </is>
       </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>FCA</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -856,6 +926,11 @@
           <t>1261 Main St (at E 13th St), Kansas City, MO 64105</t>
         </is>
       </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>MCI</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -884,6 +959,11 @@
           <t>2020 1st Ave (21st), Kearney, NE 68847</t>
         </is>
       </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>EAR</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -912,6 +992,11 @@
           <t>131 Front St (mission St. and front), Ketchikan, AK 99901</t>
         </is>
       </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>KTN</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -940,6 +1025,11 @@
           <t>1100 Atlantic Blvd, Key West, FL 33040</t>
         </is>
       </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>EYW</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -968,6 +1058,11 @@
           <t>1000 Boardwalk (at Maryland Ave), Atlantic City, NJ 08401</t>
         </is>
       </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>ACY</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -986,14 +1081,19 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>37.97541</v>
+        <v>31.125859</v>
       </c>
       <c r="E20" t="n">
-        <v>-100.859676</v>
+        <v>-97.724992</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1115 E Kansas Plz, Garden City, KS 67846</t>
+          <t>1015 N 8th St, Killeen, TX 76541</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>GRK</t>
         </is>
       </c>
     </row>
@@ -1024,6 +1124,11 @@
           <t>1033 Broad St, Augusta, GA 30901</t>
         </is>
       </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>AGS</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1052,6 +1157,11 @@
           <t>1 King Salmon Airport Rd, King Salmon, AK 99613</t>
         </is>
       </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>AKN</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1070,14 +1180,19 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>37.975329</v>
+        <v>35.962261</v>
       </c>
       <c r="E23" t="n">
-        <v>-100.883038</v>
+        <v>-83.919578</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1106 N Taylor Ave, Garden City, KS 67846</t>
+          <t>500 W Church Ave, Knoxville, TN 37902</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>TYS</t>
         </is>
       </c>
     </row>
@@ -1108,6 +1223,11 @@
           <t>117 Lower Mill Bay Rd, Kodiak, AK 99615</t>
         </is>
       </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>ADQ</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1136,6 +1256,11 @@
           <t>Calzada Cuesco 100 (Blvd. Felipe Ángeles), 42080 Pachuca, Hidalgo</t>
         </is>
       </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>KOA</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1164,6 +1289,11 @@
           <t>1 Airport Way, Kotzebue, AK 99752</t>
         </is>
       </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>OTZ</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1192,6 +1322,11 @@
           <t>1128 La Crosse St, La Crosse, WI 54601</t>
         </is>
       </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>LSE</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1210,14 +1345,19 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>30.22618</v>
+        <v>37.970207</v>
       </c>
       <c r="E28" t="n">
-        <v>-92.020225</v>
+        <v>-100.873154</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>301 W Congress St, Lafayette, LA 70501</t>
+          <t>615 N Main St, Garden City, KS 67846</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>LFT</t>
         </is>
       </c>
     </row>
@@ -1238,14 +1378,19 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>37.972238</v>
+        <v>30.23616</v>
       </c>
       <c r="E29" t="n">
-        <v>-100.872859</v>
+        <v>-93.23323000000001</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>805 N Main St, Garden City, KS 67846</t>
+          <t>N Lakeshore Dr, Lake Charles, LA 70601</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>LCH</t>
         </is>
       </c>
     </row>
@@ -1276,6 +1421,11 @@
           <t>1026 W Saginaw St, Lansing, MI 48915</t>
         </is>
       </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>LAN</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1304,6 +1454,11 @@
           <t>710 E Garfield St, Laramie, WY 82070</t>
         </is>
       </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>LAR</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1322,14 +1477,19 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>27.501686</v>
+        <v>37.964774</v>
       </c>
       <c r="E32" t="n">
-        <v>-99.51122100000001</v>
+        <v>-100.855758</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>1600 Water St, Laredo, TX 78040</t>
+          <t>302 Fleming St, Garden City, KS 67846</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>LRD</t>
         </is>
       </c>
     </row>
@@ -1360,6 +1520,11 @@
           <t>3000 Paradise Rd, Las Vegas, NV 89109</t>
         </is>
       </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>LAS</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1388,6 +1553,11 @@
           <t>RTE 30 E (at Colony Ln.), Latrobe, PA 15650</t>
         </is>
       </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>LBE</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1416,6 +1586,11 @@
           <t>615 N Main St, Garden City, KS 67846</t>
         </is>
       </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>LAW</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1444,6 +1619,11 @@
           <t>113 E Washington St (at S Jefferson St), Lewisburg, WV 24901</t>
         </is>
       </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>LWB</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1472,6 +1652,11 @@
           <t>1230 Idaho St, Lewiston, ID 83501</t>
         </is>
       </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>LWS</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1490,14 +1675,19 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>37.969542</v>
+        <v>30.245094</v>
       </c>
       <c r="E38" t="n">
-        <v>-100.871305</v>
+        <v>-97.72324399999999</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>602 N 7th St, Garden City, KS 67846</t>
+          <t>2200 S Lakeshore Blvd, Austin, TX 78741</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>AUS</t>
         </is>
       </c>
     </row>
@@ -1528,6 +1718,11 @@
           <t>3357 Sutherland Dr, Lexington, KY 40517</t>
         </is>
       </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>LEX</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1556,6 +1751,11 @@
           <t>508 Hotel Dr, Liberal, KS 67901</t>
         </is>
       </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>LBL</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1584,6 +1784,11 @@
           <t>4602 Hoomana Rd (Hwy 50), Lihue, HI 96766</t>
         </is>
       </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>LIH</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1612,6 +1817,11 @@
           <t>1222 S 27th St, Lincoln, NE 68502</t>
         </is>
       </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>LNK</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1630,14 +1840,19 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>34.738228</v>
+        <v>37.967672</v>
       </c>
       <c r="E43" t="n">
-        <v>-92.29746400000001</v>
+        <v>-100.874644</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2120 W Daisy L Gatson Bates Dr, Little Rock, AR 72202</t>
+          <t>121 W Grant Ave (btwn N 8th &amp; Main St.), Garden City, KS 67846</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>LIT</t>
         </is>
       </c>
     </row>
@@ -1668,6 +1883,11 @@
           <t>210 E 3rd St (The Promenade N), Long Beach, CA 90802</t>
         </is>
       </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>LGB</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1686,14 +1906,19 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>37.969052</v>
+        <v>32.499433</v>
       </c>
       <c r="E45" t="n">
-        <v>-100.871077</v>
+        <v>-94.73991700000001</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>210 E Spruce St, Garden City, KS 67846</t>
+          <t>412 N High St, Longview, TX 75605</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>GGG</t>
         </is>
       </c>
     </row>
@@ -1724,6 +1949,11 @@
           <t>631 Main St (San Juan), Alamosa, CO 81101</t>
         </is>
       </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>ALS</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1752,6 +1982,11 @@
           <t>125 Paseo De La Plz (btwn Main &amp; Los Angeles St), Los Angeles, CA 90012</t>
         </is>
       </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>LAX</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1780,6 +2015,11 @@
           <t>325 W Main St (4th Street), Louisville, KY 40202</t>
         </is>
       </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>SDF</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1808,6 +2048,11 @@
           <t>1501 Mac Davis Ln (15th St.), Lubbock, TX 79401</t>
         </is>
       </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>LBB</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1836,6 +2081,11 @@
           <t>2 E Main St (at Mifflin, Main, Carroll, Pinckney), Madison, WI 53703</t>
         </is>
       </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>MSN</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1864,6 +2114,11 @@
           <t>98 Willow St, Manchester, NH 03103</t>
         </is>
       </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>MHT</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1892,6 +2147,11 @@
           <t>1901 Buffalo Soldier Pkwy, Junction City, KS 66442</t>
         </is>
       </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>MHK</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1920,6 +2180,11 @@
           <t>119 S Front St (Main), Marquette, MI 49855</t>
         </is>
       </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>MQT</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1948,6 +2213,11 @@
           <t>28 E State St, Mason City, IA 50401</t>
         </is>
       </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>MCW</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1976,6 +2246,11 @@
           <t>1000 Terminal Loop Pkwy, Medford, OR 97504</t>
         </is>
       </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>MFR</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2004,6 +2279,11 @@
           <t>625 E Hibiscus Blvd, Melbourne, FL 32901</t>
         </is>
       </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>MLB</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2022,14 +2302,19 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>35.143656</v>
+        <v>37.964774</v>
       </c>
       <c r="E57" t="n">
-        <v>-90.051559</v>
+        <v>-100.855758</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>149 Monroe Ave (2nd Avenue), Memphis, TN 38103</t>
+          <t>302 Fleming St, Garden City, KS 67846</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>MEM</t>
         </is>
       </c>
     </row>
@@ -2060,6 +2345,11 @@
           <t>100 15th Pl S, Meridian, MS 39301</t>
         </is>
       </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>MEI</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2088,6 +2378,11 @@
           <t>50 NW 14th St, Miami, FL 33136</t>
         </is>
       </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>MIA</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2116,6 +2411,11 @@
           <t>323 Pine Ave, Albany, GA 31701</t>
         </is>
       </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>ABY</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2144,6 +2444,11 @@
           <t>1310 E 8th St, Odessa, TX 79761</t>
         </is>
       </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>MAF</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2172,6 +2477,11 @@
           <t>5300 S Howell Ave, Milwaukee, WI 53207</t>
         </is>
       </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>MKE</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2200,6 +2510,11 @@
           <t>15 S 9th St (btw Hennepin Ave &amp; Lasalle Ave), Minneapolis, MN 55402</t>
         </is>
       </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>MSP</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2228,6 +2543,11 @@
           <t>1400 N Broadway, Minot, ND 58703</t>
         </is>
       </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>MOT</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2246,14 +2566,19 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>26.26646</v>
+        <v>37.975329</v>
       </c>
       <c r="E65" t="n">
-        <v>-98.17224</v>
+        <v>-100.883038</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>3801 S Business Highway 281, Edinburg, TX 78539</t>
+          <t>1106 N Taylor Ave, Garden City, KS 67846</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>MFE</t>
         </is>
       </c>
     </row>
@@ -2284,6 +2609,11 @@
           <t>139 W Main St, Missoula, MT 59802</t>
         </is>
       </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>MSO</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2312,6 +2642,11 @@
           <t>16 S Main St, Moab, UT 84532</t>
         </is>
       </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2340,6 +2675,11 @@
           <t>119 W Hazel St, Garden City, KS 67846</t>
         </is>
       </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>MOB</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2368,6 +2708,11 @@
           <t>1623 5th Ave (btwn 16th &amp; 17th), Moline, IL 61265</t>
         </is>
       </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>MLI</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2386,14 +2731,19 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>32.503871</v>
+        <v>37.967543</v>
       </c>
       <c r="E70" t="n">
-        <v>-92.116303</v>
+        <v>-100.871894</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>300 Washington St, Monroe, LA 71201</t>
+          <t>205 E Laurel St, Garden City, KS 67846</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>MLU</t>
         </is>
       </c>
     </row>
@@ -2424,6 +2774,11 @@
           <t>930 Fremont St (btwn Del Monte &amp; Pearl), Monterey, CA 93940</t>
         </is>
       </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>MRY</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2452,6 +2807,11 @@
           <t>205 E Laurel St, Garden City, KS 67846</t>
         </is>
       </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>MGM</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2480,6 +2840,11 @@
           <t>361 Palmer St, Delta, CO 81416</t>
         </is>
       </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>MTJ</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2508,6 +2873,11 @@
           <t>3991 County Road C, Mosinee, WI 54455</t>
         </is>
       </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>CWA</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -2536,6 +2906,11 @@
           <t>1095 3rd St, Muskegon, MI 49441</t>
         </is>
       </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>MKG</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -2564,6 +2939,11 @@
           <t>1110 N Ocean Blvd (Mr. Joe White Ave.), Myrtle Beach, SC 29577</t>
         </is>
       </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>MYR</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -2582,14 +2962,19 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>37.964774</v>
+        <v>36.163989</v>
       </c>
       <c r="E77" t="n">
-        <v>-100.855758</v>
+        <v>-86.77886599999999</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>302 Fleming St, Garden City, KS 67846</t>
+          <t>200 4th Ave N (Church St), Nashville, TN 37219</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>BNA</t>
         </is>
       </c>
     </row>
@@ -2620,6 +3005,11 @@
           <t>315 Front St (at Turner St.), Beaufort, NC 28516</t>
         </is>
       </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>EWN</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -2648,6 +3038,11 @@
           <t>910 Iberville St, New Orleans, LA 70112</t>
         </is>
       </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>MSY</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -2676,6 +3071,11 @@
           <t>350 7th Ave (29th St. &amp; 30th St.), New York, NY 10001</t>
         </is>
       </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>JFK</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -2704,6 +3104,11 @@
           <t>37 W 26th St (btwn 6th Ave &amp; Broadway), New York, NY 10010</t>
         </is>
       </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>LGA</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -2732,6 +3137,11 @@
           <t>810 Broad St, Newark, NJ 07102</t>
         </is>
       </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>EWR</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -2760,6 +3170,11 @@
           <t>Bakersfield, CA 93301</t>
         </is>
       </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>BFL</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -2788,6 +3203,11 @@
           <t>383 Main St, Poughkeepsie, NY 12601</t>
         </is>
       </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>SWF</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -2816,6 +3236,11 @@
           <t>402 W Duke of Gloucester St (Francis Street), Williamsburg, VA 23185</t>
         </is>
       </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>PHF</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -2844,6 +3269,11 @@
           <t>333 Rainbow Blvd, Niagara Falls, NY 14303</t>
         </is>
       </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>IAG</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -2872,6 +3302,11 @@
           <t>500 Bering St, Nome, AK 99762</t>
         </is>
       </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>OME</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -2900,6 +3335,11 @@
           <t>312 W Bute St (Yarmouth St), Norfolk, VA 23510</t>
         </is>
       </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>ORF</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -2928,6 +3368,11 @@
           <t>165 S 5th St, Coos Bay, OR 97420</t>
         </is>
       </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>OTH</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -2956,6 +3401,11 @@
           <t>101 Halligan Dr (Platte Oasis Parkway), North Platte, NE 69101</t>
         </is>
       </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>LBF</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -2984,6 +3434,11 @@
           <t>1825 San Pablo Ave (at 19th St), Oakland, CA 94612</t>
         </is>
       </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>OAK</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -3012,6 +3467,11 @@
           <t>227 25th St, Ogden, UT 84401</t>
         </is>
       </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>OGD</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -3040,6 +3500,11 @@
           <t>910 Franklin St, Ogdensburg, NY 13669</t>
         </is>
       </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>OGS</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -3068,6 +3533,11 @@
           <t>7035 Elm Rd (Elm Rd), Baltimore, MD 21240</t>
         </is>
       </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>BWI</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -3086,14 +3556,19 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>37.967087</v>
+        <v>35.480551</v>
       </c>
       <c r="E95" t="n">
-        <v>-100.873532</v>
+        <v>-97.521293</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>314 N Main St, Garden City, KS 67846</t>
+          <t>1207 N Walker Ave, Oklahoma City, OK 73103</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>OKC</t>
         </is>
       </c>
     </row>
@@ -3124,6 +3599,11 @@
           <t>1515 E Fort St (Abbott), Omaha, NE 68110</t>
         </is>
       </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>OMA</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -3152,6 +3632,11 @@
           <t>144 State St (Eagle Street), Albany, NY 12207</t>
         </is>
       </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>ALB</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -3180,6 +3665,11 @@
           <t>W6390 Challenger Dr, Appleton, WI 54914</t>
         </is>
       </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>ONT</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -3208,6 +3698,11 @@
           <t>400 W Church St, Orlando, FL 32801</t>
         </is>
       </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>MCO</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -3236,6 +3731,11 @@
           <t>2020 Frederica St (Ford Ave.), Owensboro, KY 42301</t>
         </is>
       </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>OWB</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -3264,6 +3764,11 @@
           <t>205 E Laurel St, Garden City, KS 67846</t>
         </is>
       </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>PAH</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -3292,6 +3797,11 @@
           <t>Wrightson Rd., Port of Spain</t>
         </is>
       </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>PPG</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -3320,6 +3830,11 @@
           <t>515 N Palm Canyon Dr (btwn W Chino &amp; W Alejo), Palm Springs, CA 92262</t>
         </is>
       </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>PSP</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -3338,14 +3853,19 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>37.964774</v>
+        <v>30.211856</v>
       </c>
       <c r="E104" t="n">
-        <v>-100.855758</v>
+        <v>-85.68335999999999</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>302 Fleming St, Garden City, KS 67846</t>
+          <t>3173 Airport Rd, Panama City, FL 32405</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>ECP</t>
         </is>
       </c>
     </row>
@@ -3376,6 +3896,11 @@
           <t>761 Williams Blvd, Richland, WA 99354</t>
         </is>
       </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>TRI</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -3404,6 +3929,11 @@
           <t>Pellston, MI 49769</t>
         </is>
       </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>PLN</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -3422,14 +3952,19 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>30.416394</v>
+        <v>37.964774</v>
       </c>
       <c r="E107" t="n">
-        <v>-87.20884700000001</v>
+        <v>-100.855758</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>201 E Gregory St, Pensacola, FL 35230</t>
+          <t>302 Fleming St, Garden City, KS 67846</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>PNS</t>
         </is>
       </c>
     </row>
@@ -3460,6 +3995,11 @@
           <t>500-698 NE Water St, Peoria, IL 61603</t>
         </is>
       </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>PIA</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -3488,6 +4028,11 @@
           <t>106 Fram St, Petersburg, AK 99833</t>
         </is>
       </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>PSG</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -3516,6 +4061,11 @@
           <t>1412 Chestnut St (at PA-611 (Broad St)), Philadelphia, PA 19102</t>
         </is>
       </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>PHL</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -3544,6 +4094,11 @@
           <t>2 E Jefferson St (1st St. &amp; Jefferson), Phoenix, AZ 85004</t>
         </is>
       </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>AZA</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -3572,6 +4127,11 @@
           <t>Terminal 4, Gate 5, Phoenix, AZ 85034</t>
         </is>
       </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>PHX</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -3600,6 +4160,11 @@
           <t>808 W Sioux Ave (James St), Pierre, SD 57501</t>
         </is>
       </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>PIR</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -3628,6 +4193,11 @@
           <t>612 Smithfield St, Pittsburgh, PA 15222</t>
         </is>
       </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>PIT</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -3656,6 +4226,11 @@
           <t>26 Green St (Bridge St), Plattsburgh, NY 12901</t>
         </is>
       </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>PBG</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -3684,6 +4259,11 @@
           <t>Pocatello, ID 83204</t>
         </is>
       </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>PIH</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -3712,6 +4292,11 @@
           <t>Ponce 00795</t>
         </is>
       </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>PSE</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -3740,6 +4325,11 @@
           <t>1001 Westbrook St, Portland, ME 04102</t>
         </is>
       </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>PWM</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -3768,6 +4358,11 @@
           <t>86 Hammond St, Bangor, ME 04401</t>
         </is>
       </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>BGR</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -3796,6 +4391,11 @@
           <t>117 NW 2nd Ave (Couch), Portland, OR 97209</t>
         </is>
       </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>PDX</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -3824,6 +4424,11 @@
           <t>40 Court St (Middle Street), Portsmouth, NH 03801</t>
         </is>
       </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>PSM</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -3852,6 +4457,11 @@
           <t>130 W Gurley St, Prescott, AZ 86301</t>
         </is>
       </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>PRC</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -3880,6 +4490,11 @@
           <t>2 College St (Benefit Street), Providence, RI 02903</t>
         </is>
       </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>PVD</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -3908,6 +4523,11 @@
           <t>190 E 100 N, Provo, UT 84606</t>
         </is>
       </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>PVU</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -3936,6 +4556,11 @@
           <t>125 Riverwalk Pl, Pueblo, CO 81003</t>
         </is>
       </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>PUB</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -3964,6 +4589,11 @@
           <t>600 NE Colorado St, Pullman, WA 99163</t>
         </is>
       </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>PUW</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -3992,6 +4622,11 @@
           <t>Taylor St (Olympia), Punta Gorda, FL 33950</t>
         </is>
       </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>PGD</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -4020,6 +4655,11 @@
           <t>2 E South St, Raleigh, NC 27601</t>
         </is>
       </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>RDU</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -4048,6 +4688,11 @@
           <t>610 Quincy St (btwn 6th &amp; 7th St), Rapid City, SD 57701</t>
         </is>
       </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>RAP</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -4076,6 +4721,11 @@
           <t>1815 Momegana St, Barrow, AK 99723</t>
         </is>
       </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>BRW</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -4104,6 +4754,11 @@
           <t>700 Auditorium Dr, Redding, CA 96001</t>
         </is>
       </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>RDD</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -4132,6 +4787,11 @@
           <t>2001 E Plumb Ln, Reno, NV 89502</t>
         </is>
       </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>RNO</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -4150,14 +4810,19 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>37.967469</v>
+        <v>30.532846</v>
       </c>
       <c r="E133" t="n">
-        <v>-100.8743</v>
+        <v>-91.15694000000001</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>117 W Grant Ave, Garden City, KS 67846</t>
+          <t>9430 Jackie Cochran Dr, Baton Rouge, LA 70807</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>BTR</t>
         </is>
       </c>
     </row>
@@ -4188,6 +4853,11 @@
           <t>33 N Brown St, Rhinelander, WI 54501</t>
         </is>
       </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>RHI</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -4216,6 +4886,11 @@
           <t>1812 W Main St (between Allen &amp; Granby), Richmond, VA 23220</t>
         </is>
       </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>RIC</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -4244,6 +4919,11 @@
           <t>1156 S 2nd St, Lander, WY 82520</t>
         </is>
       </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>RIW</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -4272,6 +4952,11 @@
           <t>110 Shenandoah Ave NE, Roanoke, VA 24016</t>
         </is>
       </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>ROA</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -4300,6 +4985,11 @@
           <t>101 2nd St SE (Civic Center Drive), Rochester, MN 55904</t>
         </is>
       </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>RST</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -4328,6 +5018,11 @@
           <t>1 War Memorial Sq (Blue Cross Arena), Rochester, NY 14614</t>
         </is>
       </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>ROC</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -4356,6 +5051,11 @@
           <t>1646 9th St, Rock Springs, WY 82901</t>
         </is>
       </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>RKS</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -4384,6 +5084,11 @@
           <t>206 N Main St, Rockford, IL 61101</t>
         </is>
       </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>RFD</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -4412,6 +5117,11 @@
           <t>100 W 11th St (at N. Main Street), Roswell, NM 88201</t>
         </is>
       </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>ROW</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -4440,6 +5150,11 @@
           <t>415 P St, Sacramento, CA 95814</t>
         </is>
       </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>SMF</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -4458,14 +5173,19 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>37.974664</v>
+        <v>29.86978</v>
       </c>
       <c r="E144" t="n">
-        <v>-100.871909</v>
+        <v>-93.936954</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>1011 N Main St, Garden City, KS 67846</t>
+          <t>235 Procter St (Dallas), Port Arthur, TX 77640</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>BPT</t>
         </is>
       </c>
     </row>
@@ -4496,6 +5216,11 @@
           <t>716 George St, Midland, MI 48640</t>
         </is>
       </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>MBS</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -4524,6 +5249,11 @@
           <t>Wrightson Rd., Port of Spain</t>
         </is>
       </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>SPN</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -4552,6 +5282,11 @@
           <t>301 W Elm St (9th Street), Salina, KS 67401</t>
         </is>
       </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>SLN</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -4580,6 +5315,11 @@
           <t>210 E 400 S, Salt Lake City, UT 84111</t>
         </is>
       </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>SLC</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -4608,6 +5348,11 @@
           <t>620 N Illinois St, Belleville, IL 62220</t>
         </is>
       </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>BLV</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -4636,6 +5381,11 @@
           <t>1 Love St (Oakes Street), San Angelo, TX 76903</t>
         </is>
       </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>SJT</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -4654,14 +5404,19 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>37.967672</v>
+        <v>29.423609</v>
       </c>
       <c r="E151" t="n">
-        <v>-100.874644</v>
+        <v>-98.48829499999999</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>121 W Grant Ave (btwn N 8th &amp; Main St.), Garden City, KS 67846</t>
+          <t>River Walk St, San Antonio , 78205, United States, San Antonio, TX 78205</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>SAT</t>
         </is>
       </c>
     </row>
@@ -4692,6 +5447,11 @@
           <t>1055 5th Ave (btwn Broadway &amp; C St), San Diego, CA 92101</t>
         </is>
       </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>SAN</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -4720,6 +5480,11 @@
           <t>210 Central Ave, Bellingham, WA 98225</t>
         </is>
       </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>BLI</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -4748,6 +5513,11 @@
           <t>50 Oak St (btwn Van Ness Ave &amp; Franklin St), San Francisco, CA 94102</t>
         </is>
       </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>SFO</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -4776,6 +5546,11 @@
           <t>1701 Airport Blvd (at Skyport Dr), San Jose, CA 95110</t>
         </is>
       </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>SJC</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -4804,6 +5579,11 @@
           <t>Pr-17 St. From San Juan (PR-17 &amp; PR-26), Carolina 00937</t>
         </is>
       </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>SJU</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -4832,6 +5612,11 @@
           <t>211 America Ave NW, Bemidji, MN 56601</t>
         </is>
       </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>BJI</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -4860,6 +5645,11 @@
           <t>Higuera St, San Luis Obispo, CA 93401</t>
         </is>
       </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>SBP</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -4888,6 +5678,11 @@
           <t>400 Sanford Ave (4th), Sanford, FL 32771</t>
         </is>
       </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>SFB</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -4916,6 +5711,11 @@
           <t>2500 N Main St, Santa Ana, CA 92705</t>
         </is>
       </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>SNA</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -4944,6 +5744,11 @@
           <t>631 W Antler Ave, Redmond, OR 97756</t>
         </is>
       </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>RDM</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -4972,6 +5777,11 @@
           <t>Santa Barbara St (btw Ortega &amp; Haley), Santa Barbara, CA 93101</t>
         </is>
       </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>SBA</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -5000,6 +5810,11 @@
           <t>100 E San Francisco St (at Shelby St.), Santa Fe, NM 87501</t>
         </is>
       </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>SAF</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -5028,6 +5843,11 @@
           <t>100 Town Ctr E, Santa Maria, CA 93454</t>
         </is>
       </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>SMX</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -5056,6 +5876,11 @@
           <t>1111 College Ave, Santa Rosa, CA 95404</t>
         </is>
       </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>STS</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -5084,6 +5909,11 @@
           <t>102 12th St W, Bradenton, FL 34205</t>
         </is>
       </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>SRQ</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -5112,6 +5942,11 @@
           <t>523 Ashmun St, Sault Ste. Marie, MI 49783</t>
         </is>
       </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>CIU</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -5140,6 +5975,11 @@
           <t>400 Airways Ave (at Gulfstream Rd), Savannah, GA 31408</t>
         </is>
       </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>SAV</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -5168,6 +6008,11 @@
           <t>1484 Chief Eddy Hoffman Hwy, Bethel, AK 99559</t>
         </is>
       </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>BET</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -5196,6 +6041,11 @@
           <t>2001 Broadway, Scottsbluff, NE 69361</t>
         </is>
       </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>BFF</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -5224,6 +6074,11 @@
           <t>24 E Northampton St (at S Main St.), Wilkes-Barre, PA 18701</t>
         </is>
       </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>AVP</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -5252,6 +6107,11 @@
           <t>510 N 28th St (at 6th Ave N), Billings, MT 59101</t>
         </is>
       </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>BIL</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -5280,6 +6140,11 @@
           <t>1525 4th Ave, Seattle, WA 98101</t>
         </is>
       </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -5308,6 +6173,11 @@
           <t>580 E 5th St, Sheridan, WY 82801</t>
         </is>
       </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>SHR</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -5336,6 +6206,11 @@
           <t>101 Crockett St, Shreveport, LA 71101</t>
         </is>
       </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>SHV</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -5364,6 +6239,11 @@
           <t>528 Pierce St, Sioux City, IA 51101</t>
         </is>
       </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>SUX</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -5392,6 +6272,11 @@
           <t>2000 W Russell St, Sioux Falls, SD 57104</t>
         </is>
       </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>FSD</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -5420,6 +6305,11 @@
           <t>103 Monastery St, Sitka, AK 99835</t>
         </is>
       </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>SIT</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -5448,6 +6338,11 @@
           <t>122 S Michigan St (at Washington St), South Bend, IN 46601</t>
         </is>
       </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>SBN</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -5476,6 +6371,11 @@
           <t>1002 W Riverside Ave (at N Monroe St), Spokane, WA 99201</t>
         </is>
       </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>GEG</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -5504,6 +6404,11 @@
           <t>212 N 6th St (btwn Madison St &amp; Jefferson St), Springfield, IL 62701</t>
         </is>
       </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>SPI</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -5532,6 +6437,11 @@
           <t>3043 N Fort Ave, Springfield, MO 65803</t>
         </is>
       </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>SGF</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -5560,6 +6470,11 @@
           <t>1300 W Saint Germain St, Saint Cloud, MN 56301</t>
         </is>
       </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>STC</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -5588,6 +6503,11 @@
           <t>250 E 400 S (at S 300 E), Saint George, UT 84770</t>
         </is>
       </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>SGU</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -5616,6 +6536,11 @@
           <t>1301 Olive St, St Louis, MO 63103</t>
         </is>
       </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>STL</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -5644,6 +6569,11 @@
           <t>83 Front St, Binghamton, NY 13905</t>
         </is>
       </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>BGM</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -5672,6 +6602,11 @@
           <t>3200 1st Ave S, Saint Petersburg, FL 33712</t>
         </is>
       </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>PIE</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -5700,6 +6635,11 @@
           <t>850 McKee St, State College, PA 16803</t>
         </is>
       </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>SCE</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -5728,6 +6668,11 @@
           <t>29 Byers St, Staunton, VA 24401</t>
         </is>
       </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>SHD</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -5756,6 +6701,11 @@
           <t>205 E Laurel St, Garden City, KS 67846</t>
         </is>
       </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>SWO</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -5784,6 +6734,11 @@
           <t>404 W Fremont St, Stockton, CA 95203</t>
         </is>
       </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>SCK</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -5812,6 +6767,11 @@
           <t>511 Sun Valley Rd E, Ketchum, ID 83340</t>
         </is>
       </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>SUN</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -5840,6 +6800,11 @@
           <t>340 Montgomery St, Syracuse, NY 13202</t>
         </is>
       </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>SYR</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -5858,14 +6823,19 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>33.522297</v>
+        <v>37.964774</v>
       </c>
       <c r="E194" t="n">
-        <v>-86.81007</v>
+        <v>-100.855758</v>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>2000 Reverend Abraham Woods Jr Blvd, Birmingham, AL 35203</t>
+          <t>302 Fleming St, Garden City, KS 67846</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>BHM</t>
         </is>
       </c>
     </row>
@@ -5896,6 +6866,11 @@
           <t>507 N Calhoun St, Tallahassee, FL 32301</t>
         </is>
       </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>TLH</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -5924,6 +6899,11 @@
           <t>Tampa, FL 33602</t>
         </is>
       </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>TPA</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -5952,6 +6932,11 @@
           <t>100 N State Line Ave, Texarkana, TX 75501</t>
         </is>
       </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>TXK</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -5980,6 +6965,11 @@
           <t>West Grove Place, Toledo OH United States, Toledo, OH 43620</t>
         </is>
       </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>TOL</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -6008,6 +6998,11 @@
           <t>154 E Front St (btwn Cass And Union), Traverse City, MI 49684</t>
         </is>
       </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>TVC</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -6036,6 +7031,11 @@
           <t>508 Hamilton Ave (Chambers St.), Trenton, NJ 08609</t>
         </is>
       </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>TTN</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -6064,6 +7064,11 @@
           <t>3370 E Speedway Blvd, Tucson, AZ 85716</t>
         </is>
       </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>TUS</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -6092,6 +7097,11 @@
           <t>110 E 2nd St (at S Cincinnati Ave), Tulsa, OK 74103</t>
         </is>
       </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>TUL</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -6120,6 +7130,11 @@
           <t>601 Shoshone St N, Twin Falls, ID 83301</t>
         </is>
       </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>TWF</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -6148,6 +7163,11 @@
           <t>201 S College Ave (Elm st), Tyler, TX 75702</t>
         </is>
       </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>TYR</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -6176,6 +7196,11 @@
           <t>305 N Patterson St, Valdosta, GA 31601</t>
         </is>
       </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>VLD</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -6194,14 +7219,19 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>30.48771</v>
+        <v>37.988227</v>
       </c>
       <c r="E206" t="n">
-        <v>-86.49629400000001</v>
+        <v>-100.881392</v>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>McCarthy Ave (at Seminole Rd), Eglin Air Force Base, FL 32542</t>
+          <t>2502 N John St, Garden City, KS 67846</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>VPS</t>
         </is>
       </c>
     </row>
@@ -6232,6 +7262,11 @@
           <t>55 S 500 E, Vernal, UT 84078</t>
         </is>
       </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>VEL</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -6250,14 +7285,19 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>37.967543</v>
+        <v>28.801157</v>
       </c>
       <c r="E208" t="n">
-        <v>-100.871894</v>
+        <v>-97.00468600000001</v>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>205 E Laurel St, Garden City, KS 67846</t>
+          <t>302 N Main St, Victoria, TX 77901</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>VCT</t>
         </is>
       </c>
     </row>
@@ -6288,6 +7328,11 @@
           <t>500 Washington Ln, Waco, TX 76708</t>
         </is>
       </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -6316,6 +7361,11 @@
           <t>363 Orchard St (3rd St), Walla Walla, WA 99362</t>
         </is>
       </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>ALW</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -6344,6 +7394,11 @@
           <t>1 Aviation Cir, Washington, DC 20001</t>
         </is>
       </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>DCA</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -6372,6 +7427,11 @@
           <t>700 Lenfant Plz SW, Washington, D.C. 20024</t>
         </is>
       </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>IAD</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -6400,6 +7460,11 @@
           <t>237 N Main St, Bishop, CA 93514</t>
         </is>
       </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>FNT</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -6428,6 +7493,11 @@
           <t>225 Commercial St (US Hwy 63), Waterloo, IA 50701</t>
         </is>
       </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>ALO</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -6456,6 +7526,11 @@
           <t>6 S Broadway, Watertown, SD 57201</t>
         </is>
       </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>ATY</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -6484,6 +7559,11 @@
           <t>805 Adobe Trl, Mandan, ND 58554</t>
         </is>
       </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>BIS</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -6512,6 +7592,11 @@
           <t>S Wenatchee Ave, Wenatchee, WA 98801</t>
         </is>
       </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>EAT</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -6540,6 +7625,11 @@
           <t>415 Clematis St (Dixie Hwy), West Palm Beach, FL 33401</t>
         </is>
       </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>PBI</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -6568,6 +7658,11 @@
           <t>200 E Post Rd, White Plains, NY 10601</t>
         </is>
       </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>HPN</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -6586,14 +7681,19 @@
         </is>
       </c>
       <c r="D220" t="n">
-        <v>37.967724</v>
+        <v>33.913483</v>
       </c>
       <c r="E220" t="n">
-        <v>-100.876059</v>
+        <v>-98.49153699999999</v>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>304 N 9th St, Garden City, KS 67846</t>
+          <t>701 Indiana Ave, Wichita Falls, TX 76301</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>SPS</t>
         </is>
       </c>
     </row>
@@ -6624,6 +7724,11 @@
           <t>400 W Douglas Ave (at Waco Ave.), Wichita, KS 67202</t>
         </is>
       </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>ICT</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -6652,6 +7757,11 @@
           <t>822 18th St E, Williston, ND 58801</t>
         </is>
       </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>XWA</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -6680,6 +7790,11 @@
           <t>913 N Market St, Wilmington, DE 19801</t>
         </is>
       </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>ILG</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -6708,6 +7823,11 @@
           <t>605 Castle St (btw 6th &amp; 7th), Wilmington, NC 28401</t>
         </is>
       </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>ILM</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -6736,6 +7856,11 @@
           <t>Front St (Franklin St), Worcester, MA 01609</t>
         </is>
       </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>ORH</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -6764,6 +7889,11 @@
           <t>312 Reid St, Wrangell, AK 99929</t>
         </is>
       </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>WRG</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -6792,6 +7922,11 @@
           <t>121 E Yakima Ave, Yakima, WA 98901</t>
         </is>
       </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>YKM</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -6820,6 +7955,11 @@
           <t>Yakutat, AK 99689</t>
         </is>
       </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>YAK</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -6848,6 +7988,11 @@
           <t>201 N 4th Ave, Yuma, AZ 85364</t>
         </is>
       </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>YUM</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -6876,6 +8021,11 @@
           <t>200 Broadway (at W Beaufort St), Normal, IL 61761</t>
         </is>
       </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>BMI</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -6904,6 +8054,11 @@
           <t>3201 W Airport Way, Boise, ID 83705</t>
         </is>
       </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>BOI</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -6932,6 +8087,11 @@
           <t>19 Stuart St (at Washington St), Boston, MA 02116</t>
         </is>
       </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>BOS</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -6960,6 +8120,11 @@
           <t>101 N Rouse Ave, Bozeman, MT 59715</t>
         </is>
       </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>BZN</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -6988,6 +8153,11 @@
           <t>416 S 5th St, Brainerd, MN 56401</t>
         </is>
       </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>BRD</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -7016,6 +8186,11 @@
           <t>605 1/2 N 8th St, Garden City, KS 67846</t>
         </is>
       </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>BRO</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -7044,6 +8219,11 @@
           <t>1505 Richmond St, Brunswick, GA 31520</t>
         </is>
       </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>BQK</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -7072,6 +8252,11 @@
           <t>Garden City , United States, Garden City, KS 67846</t>
         </is>
       </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>ADK</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -7100,6 +8285,11 @@
           <t>2200 Sunport Blvd SE (at Sunport Loop), Albuquerque, NM 87106</t>
         </is>
       </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>ABQ</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -7128,6 +8318,11 @@
           <t>525 Niagara St (at Pennsylvania St.), Buffalo, NY 14201</t>
         </is>
       </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>BUF</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -7156,6 +8351,11 @@
           <t>851 N San Fernando Blvd, Burbank, CA 91502</t>
         </is>
       </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>BUR</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -7184,6 +8384,11 @@
           <t>149 Church St (Pine Place), Burlington, VT 05401</t>
         </is>
       </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>BTV</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -7212,6 +8417,11 @@
           <t>799 E Front St, Butte, MT 59701</t>
         </is>
       </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>BTM</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -7240,6 +8450,11 @@
           <t>19 N Water St, Cape Girardeau, MO 63701</t>
         </is>
       </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>CGI</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -7268,6 +8483,11 @@
           <t>1701 E E St, Casper, WY 82601</t>
         </is>
       </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>CPR</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -7296,6 +8516,11 @@
           <t>200 N Main St, Cedar City, UT 84721</t>
         </is>
       </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>CDC</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -7324,6 +8549,11 @@
           <t>410 E Washington St (at S Van Buren), Iowa City, IA 52240</t>
         </is>
       </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>CID</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -7352,6 +8582,11 @@
           <t>1005 S Lincoln Ave, Urbana, IL 61801</t>
         </is>
       </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>CMI</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -7380,6 +8615,11 @@
           <t>Concord Street (at Vendue Range), Charleston, SC 29401</t>
         </is>
       </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>CHS</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -7408,6 +8648,11 @@
           <t>1 Carney Ct, Dunbar, WV 25064</t>
         </is>
       </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>CRW</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -7436,6 +8681,11 @@
           <t>200- 5D-4 Altona &amp; Welgunst, Charlotte Amalie St. Thomas 00802</t>
         </is>
       </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>STT</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -7464,6 +8714,11 @@
           <t>101 S Tryon St, Charlotte, NC 28280</t>
         </is>
       </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -7492,6 +8747,11 @@
           <t>Aguadilla</t>
         </is>
       </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>BQN</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -7520,6 +8780,11 @@
           <t>418 W Main St, Charlottesville, VA 22903</t>
         </is>
       </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>CHO</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -7548,6 +8813,11 @@
           <t>706 E Maple, Garden City, Kansas, Garden City, KS 67846</t>
         </is>
       </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>CHA</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -7576,6 +8846,11 @@
           <t>4610 Carey Ave, Cheyenne, WY 82001</t>
         </is>
       </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>CYS</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -7604,6 +8879,11 @@
           <t>24 E Ida B Wells Dr (at Wabash Ave.), Chicago, IL 60605</t>
         </is>
       </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>MDW</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -7632,6 +8912,11 @@
           <t>24 E Ida B Wells Dr (at Wabash Ave.), Chicago, IL 60605</t>
         </is>
       </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>ORD</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -7660,6 +8945,11 @@
           <t>302 Fleming St, Garden City, KS 67846</t>
         </is>
       </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>AEX</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -7684,6 +8974,11 @@
         <v>-64.704652</v>
       </c>
       <c r="F259" t="inlineStr"/>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>STX</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -7712,6 +9007,11 @@
           <t>1799 Tennessee Ave (at Transpark Dr), Cincinnati, OH 45229</t>
         </is>
       </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>CVG</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -7740,6 +9040,11 @@
           <t>218 Adams St, Fairmont, WV 26554</t>
         </is>
       </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>CKB</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -7768,6 +9073,11 @@
           <t>2015 E 4th St, Cleveland, OH 44115</t>
         </is>
       </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>CLE</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -7796,6 +9106,11 @@
           <t>1285 Sheridan Ave, Cody, WY 82414</t>
         </is>
       </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>COD</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -7814,14 +9129,19 @@
         </is>
       </c>
       <c r="D264" t="n">
-        <v>30.663642</v>
+        <v>37.960715</v>
       </c>
       <c r="E264" t="n">
-        <v>-96.380488</v>
+        <v>-100.867198</v>
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>Bryan, TX 77803</t>
+          <t>706 E Maple, Garden City, Kansas, Garden City, KS 67846</t>
+        </is>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>CLL</t>
         </is>
       </c>
     </row>
@@ -7852,6 +9172,11 @@
           <t>30 W Dale St (at Cascade Ave.), Colorado Springs, CO 80903</t>
         </is>
       </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>COS</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -7880,6 +9205,11 @@
           <t>100 W Broadway (Garth Ave.), Columbia, MO 65203</t>
         </is>
       </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>COU</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -7908,6 +9238,11 @@
           <t>1221 Main St, Columbia, SC 29201</t>
         </is>
       </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>CAE</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -7936,6 +9271,11 @@
           <t>201 S 7th St, Easton, PA 18042</t>
         </is>
       </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>ABE</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -7954,14 +9294,19 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>32.467125</v>
+        <v>32.526518</v>
       </c>
       <c r="E269" t="n">
-        <v>-84.974216</v>
+        <v>-84.92703899999999</v>
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>1251 Wynnton Rd, Columbus, GA 31906</t>
+          <t>5727 Moon Rd, Columbus, GA 31909</t>
+        </is>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>CSG</t>
         </is>
       </c>
     </row>
@@ -7992,6 +9337,11 @@
           <t>1727 E Kansas Plz, Garden City, KS 67846</t>
         </is>
       </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>GTR</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -8020,6 +9370,11 @@
           <t>160 S High St (E Rich St), Columbus, OH 43215</t>
         </is>
       </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>CMH</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -8048,6 +9403,11 @@
           <t>20 S 3rd St, Columbus, OH 43215</t>
         </is>
       </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>LCK</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -8076,6 +9436,11 @@
           <t>24 Spring St SW, Concord, NC 28025</t>
         </is>
       </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -8104,6 +9469,11 @@
           <t>101 Lake Avenue, Cordova , 99574, United States, Cordova, AK 99574</t>
         </is>
       </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>CDV</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -8122,14 +9492,19 @@
         </is>
       </c>
       <c r="D275" t="n">
-        <v>27.796701</v>
+        <v>37.967543</v>
       </c>
       <c r="E275" t="n">
-        <v>-97.39453899999999</v>
+        <v>-100.871894</v>
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>802 N Carancahua St (at Downtown Corpus Christi), Corpus Christi, TX 78401</t>
+          <t>201 E Laurel St, Garden City, KS 67846</t>
+        </is>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>CRP</t>
         </is>
       </c>
     </row>
@@ -8160,6 +9535,11 @@
           <t>8008 Herb Kelleher Way (at Mockingbird Ln), Dallas, TX 75235</t>
         </is>
       </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>DAL</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -8178,14 +9558,19 @@
         </is>
       </c>
       <c r="D277" t="n">
-        <v>32.747846</v>
+        <v>37.964774</v>
       </c>
       <c r="E277" t="n">
-        <v>-97.32653000000001</v>
+        <v>-100.855758</v>
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>1502 Commerce St (at 15th St), Fort Worth, TX 76102</t>
+          <t>302 Fleming St, Garden City, KS 67846</t>
+        </is>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>DFW</t>
         </is>
       </c>
     </row>
@@ -8216,6 +9601,11 @@
           <t>41 Madison St (2nd St), Dayton, OH 45402</t>
         </is>
       </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>DAY</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -8244,6 +9634,11 @@
           <t>250 N Atlantic Ave, Daytona Beach, FL 32118</t>
         </is>
       </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>DAB</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -8272,6 +9667,11 @@
           <t>225 River St, Alpena, MI 49707</t>
         </is>
       </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>APN</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -8300,6 +9700,11 @@
           <t>1 Airport Way, Prudhoe Bay, AK 99734</t>
         </is>
       </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>SCC</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -8328,6 +9733,11 @@
           <t>1295 W Wood St, Decatur, IL 62522</t>
         </is>
       </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>DEC</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -8356,6 +9766,11 @@
           <t>120 E Garfield St, Del Rio, TX 78840</t>
         </is>
       </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>DRT</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -8384,6 +9799,11 @@
           <t>100 W 14th Avenue Pkwy (btwn Broadway &amp; Bannock St), Denver, CO 80204</t>
         </is>
       </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>DEN</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -8412,6 +9832,11 @@
           <t>550 S Buchanan St, Amarillo, TX 79101</t>
         </is>
       </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>AMA</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -8440,6 +9865,11 @@
           <t>909 Robert D Ray Dr (E University), Des Moines, IA 50309</t>
         </is>
       </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>DSM</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -8468,6 +9898,11 @@
           <t>645 Griswold St, Detroit, MI 48226</t>
         </is>
       </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>DTW</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -8496,6 +9931,11 @@
           <t>446 College Dr N, Devils Lake, ND 58301</t>
         </is>
       </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>DVL</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -8524,6 +9964,11 @@
           <t>25 2nd Ave W, Dickinson, ND 58601</t>
         </is>
       </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>DIK</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -8552,6 +9997,11 @@
           <t>708 Airport Rd, Dillingham, AK 99576</t>
         </is>
       </c>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>DLG</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -8580,6 +10030,11 @@
           <t>201 4th Ave (W Trail Street), Dodge City, KS 67801</t>
         </is>
       </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>DDC</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -8608,6 +10063,11 @@
           <t>205 E Laurel St, Garden City, KS 67846</t>
         </is>
       </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>DHN</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -8636,6 +10096,11 @@
           <t>Iowa, Dubuque, IA 52001</t>
         </is>
       </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>DBQ</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -8664,6 +10129,11 @@
           <t>520 W Superior St (at S 5th Ave W), Duluth, MN 55802</t>
         </is>
       </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>DLH</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -8692,6 +10162,11 @@
           <t>1060 Main Ave, Durango, CO 81301</t>
         </is>
       </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>DRO</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -8720,6 +10195,11 @@
           <t>100 Fairgrounds Rd, Eagle, CO 81631</t>
         </is>
       </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>EGE</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -8748,6 +10228,11 @@
           <t>310 S Barstow St, Eau Claire, WI 54701</t>
         </is>
       </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>EAU</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -8776,6 +10261,11 @@
           <t>325 N Kansas St, El Paso, TX 79901</t>
         </is>
       </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>ELP</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -8804,6 +10294,11 @@
           <t>5000 W Intl Airport Rd, Anchorage, AK 99502</t>
         </is>
       </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>ANC</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -8832,6 +10327,11 @@
           <t>674 Cimarron Way (Mountain City Hwy), Elko, NV 89801</t>
         </is>
       </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>EKO</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -8860,6 +10360,11 @@
           <t>1 W Market St (at Centerway Sq), Corning, NY 14830</t>
         </is>
       </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>ELM</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -8888,6 +10393,11 @@
           <t>101 Boston Store Pl, Erie, PA 16501</t>
         </is>
       </c>
+      <c r="G302" t="inlineStr">
+        <is>
+          <t>ERI</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -8916,6 +10426,11 @@
           <t>412 N Lincoln Rd, Escanaba, MI 49829</t>
         </is>
       </c>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>ESC</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -8944,6 +10459,11 @@
           <t>755 Monroe St (at W 6th St), Eugene, OR 97402</t>
         </is>
       </c>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>EUG</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -8972,6 +10492,11 @@
           <t>200 SE Martin Luther King Jr Blvd (at Walnut St.), Evansville, IN 47713</t>
         </is>
       </c>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>EVV</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -9000,6 +10525,11 @@
           <t>2720 Rockefeller Ave, Everett, WA 98201</t>
         </is>
       </c>
+      <c r="G306" t="inlineStr">
+        <is>
+          <t>PAE</t>
+        </is>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -9028,6 +10558,11 @@
           <t>433 Harold Bentley Ave, Fairbanks, AK 99701</t>
         </is>
       </c>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -9056,6 +10591,11 @@
           <t>624 Main Ave, Fargo, ND 58103</t>
         </is>
       </c>
+      <c r="G308" t="inlineStr">
+        <is>
+          <t>FAR</t>
+        </is>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -9084,6 +10624,11 @@
           <t>435 N Garland Ave, Fayetteville, AR 72701</t>
         </is>
       </c>
+      <c r="G309" t="inlineStr">
+        <is>
+          <t>XNA</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -9112,6 +10657,11 @@
           <t>415 W College Ave, Appleton, WI 54911</t>
         </is>
       </c>
+      <c r="G310" t="inlineStr">
+        <is>
+          <t>ATW</t>
+        </is>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -9140,6 +10690,11 @@
           <t>1209 Hay St (at Highland St.), Fayetteville, NC 28305</t>
         </is>
       </c>
+      <c r="G311" t="inlineStr">
+        <is>
+          <t>FAY</t>
+        </is>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -9168,6 +10723,11 @@
           <t>120 N Leroux St (at E Birch Ave), Flagstaff, AZ 86001</t>
         </is>
       </c>
+      <c r="G312" t="inlineStr">
+        <is>
+          <t>FLG</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -9196,6 +10756,11 @@
           <t>2211 Lapeer Rd, Flint, MI 48503</t>
         </is>
       </c>
+      <c r="G313" t="inlineStr">
+        <is>
+          <t>FNT</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -9224,6 +10789,11 @@
           <t>3022 5th Ave S, Fort Dodge, IA 50501</t>
         </is>
       </c>
+      <c r="G314" t="inlineStr">
+        <is>
+          <t>FOD</t>
+        </is>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -9252,6 +10822,11 @@
           <t>100 Terminal Dr (I-595), Fort Lauderdale, FL 33315</t>
         </is>
       </c>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>FLL</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -9280,6 +10855,11 @@
           <t>5017 Iowa Avenue, Fort Leonard Wood , 65473, United States, Fort Leonard Wood, MO 65473</t>
         </is>
       </c>
+      <c r="G316" t="inlineStr">
+        <is>
+          <t>TBN</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -9308,6 +10888,11 @@
           <t>3559 Veronica S Shoemaker Blvd, Fort Myers, FL 33916</t>
         </is>
       </c>
+      <c r="G317" t="inlineStr">
+        <is>
+          <t>RSW</t>
+        </is>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -9326,14 +10911,19 @@
         </is>
       </c>
       <c r="D318" t="n">
-        <v>37.967543</v>
+        <v>35.374218</v>
       </c>
       <c r="E318" t="n">
-        <v>-100.871894</v>
+        <v>-94.39659</v>
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t>205 E Laurel St, Garden City, KS 67846</t>
+          <t>3201 Rogers Ave, Fort Smith, AR 72903</t>
+        </is>
+      </c>
+      <c r="G318" t="inlineStr">
+        <is>
+          <t>FSM</t>
         </is>
       </c>
     </row>
@@ -9364,6 +10954,11 @@
           <t>3411 Sherman Blvd, Fort Wayne, IN 46808</t>
         </is>
       </c>
+      <c r="G319" t="inlineStr">
+        <is>
+          <t>FWA</t>
+        </is>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -9392,6 +10987,11 @@
           <t>700 M St, Fresno, CA 93721</t>
         </is>
       </c>
+      <c r="G320" t="inlineStr">
+        <is>
+          <t>FAT</t>
+        </is>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -9420,6 +11020,11 @@
           <t>19 W University Ave (Corner of 1st Street &amp; Main Street), Gainesville, FL 32601</t>
         </is>
       </c>
+      <c r="G321" t="inlineStr">
+        <is>
+          <t>GNV</t>
+        </is>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -9448,6 +11053,11 @@
           <t>205 G St (2nd and G Street), Eureka, CA 95501</t>
         </is>
       </c>
+      <c r="G322" t="inlineStr">
+        <is>
+          <t>ACV</t>
+        </is>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -9466,14 +11076,19 @@
         </is>
       </c>
       <c r="D323" t="n">
-        <v>37.967543</v>
+        <v>35.596419</v>
       </c>
       <c r="E323" t="n">
-        <v>-100.871894</v>
+        <v>-82.55692000000001</v>
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>205 E Laurel St, Garden City, KS 67846</t>
+          <t>1 Battle Sq, Asheville, NC 28801</t>
+        </is>
+      </c>
+      <c r="G323" t="inlineStr">
+        <is>
+          <t>AVL</t>
         </is>
       </c>
     </row>
@@ -9504,6 +11119,11 @@
           <t>406 S Gillette Ave, Gillette, WY 82716</t>
         </is>
       </c>
+      <c r="G324" t="inlineStr">
+        <is>
+          <t>GCC</t>
+        </is>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -9532,6 +11152,11 @@
           <t>375 2nd Ave N, Grand Forks, ND 58203</t>
         </is>
       </c>
+      <c r="G325" t="inlineStr">
+        <is>
+          <t>GFK</t>
+        </is>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -9560,6 +11185,11 @@
           <t>700 E Stolley Park Rd, Grand Island, NE 68801</t>
         </is>
       </c>
+      <c r="G326" t="inlineStr">
+        <is>
+          <t>GRI</t>
+        </is>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -9588,6 +11218,11 @@
           <t>449 Main St (5th St.), Grand Junction, CO 81501</t>
         </is>
       </c>
+      <c r="G327" t="inlineStr">
+        <is>
+          <t>GJT</t>
+        </is>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -9616,6 +11251,11 @@
           <t>303 Pearl St NW, Grand Rapids, MI 49504</t>
         </is>
       </c>
+      <c r="G328" t="inlineStr">
+        <is>
+          <t>GRR</t>
+        </is>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -9644,6 +11284,11 @@
           <t>Great Falls, MT 59405</t>
         </is>
       </c>
+      <c r="G329" t="inlineStr">
+        <is>
+          <t>GTF</t>
+        </is>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -9672,6 +11317,11 @@
           <t>201 Main St, Green Bay, WI 54301</t>
         </is>
       </c>
+      <c r="G330" t="inlineStr">
+        <is>
+          <t>GRB</t>
+        </is>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -9700,6 +11350,11 @@
           <t>210 E Commerce Ave (Green Drive), High Point, NC 27260</t>
         </is>
       </c>
+      <c r="G331" t="inlineStr">
+        <is>
+          <t>GSO</t>
+        </is>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -9728,6 +11383,11 @@
           <t>200 Nash St, Greenville, NC 27834</t>
         </is>
       </c>
+      <c r="G332" t="inlineStr">
+        <is>
+          <t>PGV</t>
+        </is>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -9756,6 +11416,11 @@
           <t>100 S Main St, Greer, SC 29650</t>
         </is>
       </c>
+      <c r="G333" t="inlineStr">
+        <is>
+          <t>GSP</t>
+        </is>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -9784,6 +11449,11 @@
           <t>Wrightson Rd., Port of Spain</t>
         </is>
       </c>
+      <c r="G334" t="inlineStr">
+        <is>
+          <t>GUM</t>
+        </is>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -9802,14 +11472,19 @@
         </is>
       </c>
       <c r="D335" t="n">
-        <v>30.392134</v>
+        <v>37.964774</v>
       </c>
       <c r="E335" t="n">
-        <v>-88.887587</v>
+        <v>-100.855758</v>
       </c>
       <c r="F335" t="inlineStr">
         <is>
-          <t>777 Beach Blvd, Biloxi, MS 39530</t>
+          <t>302 Fleming St, Garden City, KS 67846</t>
+        </is>
+      </c>
+      <c r="G335" t="inlineStr">
+        <is>
+          <t>GPT</t>
         </is>
       </c>
     </row>
@@ -9840,6 +11515,11 @@
           <t>West Virginia Avenue, Gunnison, CO 81230</t>
         </is>
       </c>
+      <c r="G336" t="inlineStr">
+        <is>
+          <t>GUC</t>
+        </is>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -9868,6 +11548,11 @@
           <t>25 W Church St, Hagerstown, MD 21740</t>
         </is>
       </c>
+      <c r="G337" t="inlineStr">
+        <is>
+          <t>HGR</t>
+        </is>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -9896,6 +11581,11 @@
           <t>821 W Water St, Hancock, MI 49930</t>
         </is>
       </c>
+      <c r="G338" t="inlineStr">
+        <is>
+          <t>CMX</t>
+        </is>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -9924,6 +11614,11 @@
           <t>1701 N 3rd St, Garden City, KS 67846</t>
         </is>
       </c>
+      <c r="G339" t="inlineStr">
+        <is>
+          <t>HRL</t>
+        </is>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -9952,6 +11647,11 @@
           <t>1110 N 3rd St (at Herr St), Harrisburg, PA 17102</t>
         </is>
       </c>
+      <c r="G340" t="inlineStr">
+        <is>
+          <t>MDT</t>
+        </is>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -9980,6 +11680,11 @@
           <t>668 Farmington Ave (Prospect Ave), Hartford, CT 06119</t>
         </is>
       </c>
+      <c r="G341" t="inlineStr">
+        <is>
+          <t>BDL</t>
+        </is>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -10008,6 +11713,11 @@
           <t>1016 N Main St, Garden City, KS 67846</t>
         </is>
       </c>
+      <c r="G342" t="inlineStr">
+        <is>
+          <t>HTS</t>
+        </is>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -10036,6 +11746,11 @@
           <t>506 E Main St (Galena Street), Aspen, CO 81611</t>
         </is>
       </c>
+      <c r="G343" t="inlineStr">
+        <is>
+          <t>ASE</t>
+        </is>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -10064,6 +11779,11 @@
           <t>414 Front St, Laurel, MS 39440</t>
         </is>
       </c>
+      <c r="G344" t="inlineStr">
+        <is>
+          <t>PIB</t>
+        </is>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -10092,6 +11812,11 @@
           <t>106 E Jefferson Ave, Hayden, CO 81639</t>
         </is>
       </c>
+      <c r="G345" t="inlineStr">
+        <is>
+          <t>HDN</t>
+        </is>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -10120,6 +11845,11 @@
           <t>1609 Main St (17th St), Hays, KS 67601</t>
         </is>
       </c>
+      <c r="G346" t="inlineStr">
+        <is>
+          <t>HYS</t>
+        </is>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -10148,6 +11878,11 @@
           <t>750 Great Northern Blvd, Helena, MT 59601</t>
         </is>
       </c>
+      <c r="G347" t="inlineStr">
+        <is>
+          <t>HLN</t>
+        </is>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -10176,6 +11911,11 @@
           <t>2100 4th Ave E, Hibbing, MN 55746</t>
         </is>
       </c>
+      <c r="G348" t="inlineStr">
+        <is>
+          <t>HIB</t>
+        </is>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -10204,6 +11944,11 @@
           <t>123 Lihiwai St, Hilo, HI 96720</t>
         </is>
       </c>
+      <c r="G349" t="inlineStr">
+        <is>
+          <t>ITO</t>
+        </is>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -10232,6 +11977,11 @@
           <t>120 Beach City Rd, Hilton Head Island, SC 29926</t>
         </is>
       </c>
+      <c r="G350" t="inlineStr">
+        <is>
+          <t>HHH</t>
+        </is>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -10260,6 +12010,11 @@
           <t>301 N Dalmont St, Hobbs, NM 88240</t>
         </is>
       </c>
+      <c r="G351" t="inlineStr">
+        <is>
+          <t>HOB</t>
+        </is>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -10288,6 +12043,11 @@
           <t>500 Ala Moana Blvd, Honolulu, HI 96813</t>
         </is>
       </c>
+      <c r="G352" t="inlineStr">
+        <is>
+          <t>HNL</t>
+        </is>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -10306,14 +12066,19 @@
         </is>
       </c>
       <c r="D353" t="n">
-        <v>37.917403</v>
+        <v>29.986628</v>
       </c>
       <c r="E353" t="n">
-        <v>-100.707006</v>
+        <v>-95.339817</v>
       </c>
       <c r="F353" t="inlineStr">
         <is>
-          <t>Garden City , United States, Garden City, KS 67846</t>
+          <t>2800 N Terminal Rd (at John F. Kennedy Blvd), Houston, TX 77032</t>
+        </is>
+      </c>
+      <c r="G353" t="inlineStr">
+        <is>
+          <t>IAH</t>
         </is>
       </c>
     </row>
@@ -10334,14 +12099,19 @@
         </is>
       </c>
       <c r="D354" t="n">
-        <v>37.966953</v>
+        <v>29.76164</v>
       </c>
       <c r="E354" t="n">
-        <v>-100.87415</v>
+        <v>-95.36962699999999</v>
       </c>
       <c r="F354" t="inlineStr">
         <is>
-          <t>301 N Main St (Chestnut St.), Garden City, KS 67846</t>
+          <t>800 Bagby St (btwn Rusk St &amp; Walker St), Houston, TX 77002</t>
+        </is>
+      </c>
+      <c r="G354" t="inlineStr">
+        <is>
+          <t>HOU</t>
         </is>
       </c>
     </row>
@@ -10372,6 +12142,11 @@
           <t>121 W Grant Ave (btwn N 8th &amp; Main St.), Garden City, KS 67846</t>
         </is>
       </c>
+      <c r="G355" t="inlineStr">
+        <is>
+          <t>HSV</t>
+        </is>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -10400,6 +12175,11 @@
           <t>457 W Broadway St (btwn Capital Ave &amp; Park Ave), Idaho Falls, ID 83402</t>
         </is>
       </c>
+      <c r="G356" t="inlineStr">
+        <is>
+          <t>IDA</t>
+        </is>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -10428,6 +12208,11 @@
           <t>310 Massachusetts Ave, Indianapolis, IN 46204</t>
         </is>
       </c>
+      <c r="G357" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -10456,6 +12241,11 @@
           <t>750 4th St (8th Avenue), International Falls, MN 56649</t>
         </is>
       </c>
+      <c r="G358" t="inlineStr">
+        <is>
+          <t>INL</t>
+        </is>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -10484,6 +12274,11 @@
           <t>303 Pearl St NW, Grand Rapids, MI 49504</t>
         </is>
       </c>
+      <c r="G359" t="inlineStr">
+        <is>
+          <t>IMT</t>
+        </is>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -10512,6 +12307,11 @@
           <t>560 Main St, Islip, NY 11751</t>
         </is>
       </c>
+      <c r="G360" t="inlineStr">
+        <is>
+          <t>ISP</t>
+        </is>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -10540,6 +12340,11 @@
           <t>36 Main St, Cortland, NY 13045</t>
         </is>
       </c>
+      <c r="G361" t="inlineStr">
+        <is>
+          <t>ITH</t>
+        </is>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -10568,6 +12373,11 @@
           <t>50 W Broadway Ave, Jackson, WY 83001</t>
         </is>
       </c>
+      <c r="G362" t="inlineStr">
+        <is>
+          <t>JAC</t>
+        </is>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -10596,6 +12406,11 @@
           <t>103 1/2 S Main St, Aberdeen, SD 57401</t>
         </is>
       </c>
+      <c r="G363" t="inlineStr">
+        <is>
+          <t>ABR</t>
+        </is>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -10622,6 +12437,11 @@
       <c r="F364" t="inlineStr">
         <is>
           <t>1224 Center St, Garden City, KS 67846</t>
+        </is>
+      </c>
+      <c r="G364" t="inlineStr">
+        <is>
+          <t>GCK</t>
         </is>
       </c>
     </row>
